--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/RMS_Data_Validation_Cablings/3U4U3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/RMS_Data_Validation_Cablings/3U4U3I.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B12CDE-6E82-43EB-856D-DBB83D556188}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB7445-E419-48A1-AE19-A835963A5DEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
